--- a/tut05/output/0501ME09.xlsx
+++ b/tut05/output/0501ME09.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.061224489795919</v>
+        <v>7.06</v>
       </c>
       <c r="C6" t="n">
-        <v>6.704545454545454</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="n">
-        <v>7.191489361702128</v>
+        <v>7.19</v>
       </c>
       <c r="E6" t="n">
-        <v>7.714285714285714</v>
+        <v>7.71</v>
       </c>
       <c r="F6" t="n">
-        <v>7.869565217391305</v>
+        <v>7.87</v>
       </c>
       <c r="G6" t="n">
-        <v>7.217391304347826</v>
+        <v>7.22</v>
       </c>
       <c r="H6" t="n">
         <v>8.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.061224489795919</v>
+        <v>7.06</v>
       </c>
       <c r="C8" t="n">
-        <v>6.89247311827957</v>
+        <v>6.89</v>
       </c>
       <c r="D8" t="n">
-        <v>6.992857142857143</v>
+        <v>6.99</v>
       </c>
       <c r="E8" t="n">
-        <v>7.17989417989418</v>
+        <v>7.18</v>
       </c>
       <c r="F8" t="n">
-        <v>7.314893617021276</v>
+        <v>7.31</v>
       </c>
       <c r="G8" t="n">
-        <v>7.298932384341637</v>
+        <v>7.3</v>
       </c>
       <c r="H8" t="n">
-        <v>7.398753894080997</v>
+        <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>7.493074792243767</v>
+        <v>7.49</v>
       </c>
     </row>
   </sheetData>
